--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Regresion Log</t>
   </si>
@@ -51,13 +51,16 @@
   </si>
   <si>
     <t>Predicción 1</t>
+  </si>
+  <si>
+    <t>Lambda.lse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +69,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -94,9 +105,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,27 +432,29 @@
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
@@ -463,43 +477,64 @@
         <v>3.4278350515463921E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <f>(7344+129)/(2867+7344+129+84)</f>
-        <v>0.71690330007674596</v>
+        <f>(6592+134)/(3619+6592+134+79)</f>
+        <v>0.64524174980813509</v>
       </c>
       <c r="C3" s="1">
-        <f>129/(129+84)</f>
-        <v>0.60563380281690138</v>
+        <f>134/(134+79)</f>
+        <v>0.62910798122065725</v>
       </c>
       <c r="D3" s="1">
-        <f>7344/(7344+2867)</f>
-        <v>0.71922436587993344</v>
+        <f>6592/(6592+3619)</f>
+        <v>0.64557829791401433</v>
       </c>
       <c r="E3" s="1">
-        <f>7344/(7344+84)</f>
-        <v>0.98869143780290791</v>
+        <f>6592/(6592+79)</f>
+        <v>0.98815769749662719</v>
       </c>
       <c r="F3" s="1">
-        <f>129/(129+2867)</f>
-        <v>4.3057409879839789E-2</v>
+        <f>134/(134+3619)</f>
+        <v>3.5704769517719157E-2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="B4" s="1">
+        <f>(7706+120)/(7706+120+93+2505)</f>
+        <v>0.75076745970836534</v>
+      </c>
+      <c r="C4" s="1">
+        <f>120/(120+93)</f>
+        <v>0.56338028169014087</v>
+      </c>
+      <c r="D4" s="1">
+        <f>7706/(7706+2505)</f>
+        <v>0.75467632944863383</v>
+      </c>
+      <c r="E4" s="1">
+        <f>7706/(7706+93)</f>
+        <v>0.98807539428131808</v>
+      </c>
+      <c r="F4" s="1">
+        <f>120/(120+2505)</f>
+        <v>4.5714285714285714E-2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1"/>
@@ -507,8 +542,14 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monica.carmona\Documents\Interno\Rehosp\Rehospit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\rehospitalizacion\Rehospit\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F827A9CA-36E1-4D40-9F22-29978A7E8CE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Regresion Log</t>
   </si>
@@ -32,12 +33,6 @@
     <t>Regresion Log Lasso</t>
   </si>
   <si>
-    <t>Regresion Log Grid</t>
-  </si>
-  <si>
-    <t>Árbol de decisón</t>
-  </si>
-  <si>
     <t>Accuracy</t>
   </si>
   <si>
@@ -51,12 +46,27 @@
   </si>
   <si>
     <t>Predicción 1</t>
+  </si>
+  <si>
+    <t>Árbol de decisión</t>
+  </si>
+  <si>
+    <t>SMV</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Bagging</t>
+  </si>
+  <si>
+    <t>Regresion Log Ridge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,9 +104,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -127,7 +138,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -405,11 +416,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,24 +433,24 @@
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -463,7 +474,7 @@
         <v>3.4278350515463921E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -488,25 +499,124 @@
         <v>4.3057409879839789E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.75080000000000002</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.56340000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.75470000000000004</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.5699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.81579999999999997</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <f>(8210+103)/(8210+103+110+2001)</f>
+        <v>0.79748656945510366</v>
+      </c>
+      <c r="C6" s="2">
+        <f>(103)/(103+110)</f>
+        <v>0.48356807511737088</v>
+      </c>
+      <c r="D6" s="2">
+        <f>(8210)/(8210+2001)</f>
+        <v>0.80403486436196259</v>
+      </c>
+      <c r="E6" s="2">
+        <f>(8210)/(8210+110)</f>
+        <v>0.98677884615384615</v>
+      </c>
+      <c r="F6" s="2">
+        <f>(103)/(2001+103)</f>
+        <v>4.8954372623574147E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <f>(6770+142)/(6770+142+71+3441)</f>
+        <v>0.6630851880276285</v>
+      </c>
+      <c r="C7" s="2">
+        <f>(142)/(142+71)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D7" s="2">
+        <f>(6770)/(6770+3441)</f>
+        <v>0.66301047889530895</v>
+      </c>
+      <c r="E7" s="2">
+        <f>(6770)/(6770+71)</f>
+        <v>0.98962140038006141</v>
+      </c>
+      <c r="F7" s="2">
+        <f>(142)/(3441+142)</f>
+        <v>3.9631593636617363E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <f>(7937+106)/(7937+106+2274+107)</f>
+        <v>0.77158480429777432</v>
+      </c>
+      <c r="C8" s="2">
+        <f>(106)/(106+107)</f>
+        <v>0.49765258215962443</v>
+      </c>
+      <c r="D8" s="2">
+        <f>(7937)/(2274+7937)</f>
+        <v>0.77729899128390956</v>
+      </c>
+      <c r="E8" s="2">
+        <f>(7937)/(7937+107)</f>
+        <v>0.98669816011934364</v>
+      </c>
+      <c r="F8" s="2">
+        <f>106/(2274+106)</f>
+        <v>4.4537815126050422E-2</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\rehospitalizacion\Rehospit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F827A9CA-36E1-4D40-9F22-29978A7E8CE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0279E738-6E07-4FF1-A57D-C87C761D4687}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6540" yWindow="435" windowWidth="18000" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Regresion Log</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Regresion Log Ridge</t>
+  </si>
+  <si>
+    <t>Regresion Log_Scale</t>
   </si>
 </sst>
 </file>
@@ -417,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,147 +479,185 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <f>(6461+132)/(6461+132+81+3750)</f>
+        <v>0.63248273215656181</v>
+      </c>
+      <c r="C3" s="1">
+        <f>132/(132+81)</f>
+        <v>0.61971830985915488</v>
+      </c>
+      <c r="D3" s="1">
+        <f>6461/(6461+3750)</f>
+        <v>0.63274899618058955</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <f>(7344+129)/(2867+7344+129+84)</f>
         <v>0.71690330007674596</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <f>129/(129+84)</f>
         <v>0.60563380281690138</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <f>7344/(7344+2867)</f>
         <v>0.71922436587993344</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
         <f>7344/(7344+84)</f>
         <v>0.98869143780290791</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F4" s="1">
         <f>129/(129+2867)</f>
         <v>4.3057409879839789E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.75080000000000002</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.56340000000000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.75470000000000004</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.98809999999999998</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4.5699999999999998E-2</v>
-      </c>
-    </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>0.81579999999999997</v>
+        <f>(6607+136)/(6607+136+77+3607)</f>
+        <v>0.64668648700489118</v>
       </c>
       <c r="C5" s="1">
-        <v>0.49299999999999999</v>
+        <f>136/(136+77)</f>
+        <v>0.63849765258215962</v>
       </c>
       <c r="D5" s="1">
-        <v>0.82250000000000001</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.98729999999999996</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5.4800000000000001E-2</v>
-      </c>
+        <f>6604/(6604+3607)</f>
+        <v>0.64675350112623642</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.75080000000000002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.56340000000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.75470000000000004</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4.5699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.81579999999999997</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B8" s="2">
         <f>(8210+103)/(8210+103+110+2001)</f>
         <v>0.79748656945510366</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C8" s="2">
         <f>(103)/(103+110)</f>
         <v>0.48356807511737088</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D8" s="2">
         <f>(8210)/(8210+2001)</f>
         <v>0.80403486436196259</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E8" s="2">
         <f>(8210)/(8210+110)</f>
         <v>0.98677884615384615</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F8" s="2">
         <f>(103)/(2001+103)</f>
         <v>4.8954372623574147E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B9" s="2">
         <f>(6770+142)/(6770+142+71+3441)</f>
         <v>0.6630851880276285</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C9" s="2">
         <f>(142)/(142+71)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D9" s="2">
         <f>(6770)/(6770+3441)</f>
         <v>0.66301047889530895</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E9" s="2">
         <f>(6770)/(6770+71)</f>
         <v>0.98962140038006141</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F9" s="2">
         <f>(142)/(3441+142)</f>
         <v>3.9631593636617363E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B10" s="2">
         <f>(7937+106)/(7937+106+2274+107)</f>
         <v>0.77158480429777432</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C10" s="2">
         <f>(106)/(106+107)</f>
         <v>0.49765258215962443</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D10" s="2">
         <f>(7937)/(2274+7937)</f>
         <v>0.77729899128390956</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E10" s="2">
         <f>(7937)/(7937+107)</f>
         <v>0.98669816011934364</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F10" s="2">
         <f>106/(2274+106)</f>
         <v>4.4537815126050422E-2</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
